--- a/medicine/Mort/Capital_décès_au_Maroc/Capital_décès_au_Maroc.xlsx
+++ b/medicine/Mort/Capital_décès_au_Maroc/Capital_décès_au_Maroc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Capital_d%C3%A9c%C3%A8s_au_Maroc</t>
+          <t>Capital_décès_au_Maroc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Maroc, le capital décès est une indemnité versée par le ministère des finances au profit des ayants droit des fonctionnaires décédés qui leur permet de faire face aux frais immédiats entraînés par la mort[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Maroc, le capital décès est une indemnité versée par le ministère des finances au profit des ayants droit des fonctionnaires décédés qui leur permet de faire face aux frais immédiats entraînés par la mort,.
 </t>
         </is>
       </c>
